--- a/infrastructure_bill_cnn.xlsx
+++ b/infrastructure_bill_cnn.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9e7bb2393f2f09c0/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="8_{42C4D5A1-8AE0-4D72-BB71-25FD5CC7C6BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B560C769-E6AF-4F09-B86D-CC0783ACE4EB}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="8_{42C4D5A1-8AE0-4D72-BB71-25FD5CC7C6BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6269EAA-7635-495F-917F-83F210FE2D1A}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="72" windowWidth="23256" windowHeight="13176" xr2:uid="{089E9D43-E361-41CC-A289-DD52642FAD74}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -128,12 +128,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -148,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -159,22 +165,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -194,8 +202,8 @@
   <autoFilter ref="A4:C19" xr:uid="{AAF8DFAA-1881-40C8-B2B3-9EE430DA2CE7}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{A737C13B-BEC0-48F5-B7F9-1EBDD7B793D4}" name="Item" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{C6919DC0-997F-40D6-8F7A-BCD53F1BCE04}" name="Budget ($B)" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{D48D51E0-B6EF-4F02-86D9-078FAFD17F3A}" name="Notes" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{C6919DC0-997F-40D6-8F7A-BCD53F1BCE04}" name="Budget ($B)" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{D48D51E0-B6EF-4F02-86D9-078FAFD17F3A}" name="Notes" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -500,9 +508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E19EAD7-6909-4166-90DF-B8B7580247D1}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -512,7 +518,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="7" t="s">
         <v>22</v>
       </c>
     </row>
@@ -680,7 +686,7 @@
       <c r="A24" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="6">
         <f>B22-Table1[[#Totals],[Budget ($B)]]</f>
         <v>639.5</v>
       </c>
